--- a/spliced/struggle/2023-04-06_17-42-32/data_selected.xlsx
+++ b/spliced/struggle/2023-04-06_17-42-32/data_selected.xlsx
@@ -485,22 +485,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2.521161556243896</v>
+        <v>2.451793313026428</v>
       </c>
       <c r="D2" t="n">
-        <v>-5.436496257781982</v>
+        <v>-5.718138635158539</v>
       </c>
       <c r="E2" t="n">
-        <v>-4.74793529510498</v>
+        <v>-4.555151760578156</v>
       </c>
       <c r="F2" t="n">
-        <v>0.00534507073462</v>
+        <v>0.0036651915870606</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0088575463742017</v>
+        <v>-0.0503963828086853</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0045814891345798</v>
+        <v>0.0389426611363887</v>
       </c>
     </row>
     <row r="3">
@@ -513,22 +513,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2.451793313026428</v>
+        <v>4.312116026878357</v>
       </c>
       <c r="D3" t="n">
-        <v>-5.718138635158539</v>
+        <v>-5.115874052047729</v>
       </c>
       <c r="E3" t="n">
-        <v>-4.555151760578156</v>
+        <v>-7.913362622261047</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0036651915870606</v>
+        <v>-1.588860511779785</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.0503963828086853</v>
+        <v>-2.905885934829712</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0389426611363887</v>
+        <v>0.6783658266067505</v>
       </c>
     </row>
     <row r="4">
@@ -541,22 +541,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4.312116026878357</v>
+        <v>3.11747863888741</v>
       </c>
       <c r="D4" t="n">
-        <v>-5.115874052047729</v>
+        <v>-5.436717748641967</v>
       </c>
       <c r="E4" t="n">
-        <v>-7.913362622261047</v>
+        <v>-5.15502381324769</v>
       </c>
       <c r="F4" t="n">
-        <v>-1.588860511779785</v>
+        <v>-0.9424123764038086</v>
       </c>
       <c r="G4" t="n">
-        <v>-2.905885934829712</v>
+        <v>-3.084411382675171</v>
       </c>
       <c r="H4" t="n">
-        <v>0.6783658266067505</v>
+        <v>0.4729624092578888</v>
       </c>
     </row>
     <row r="5">
@@ -569,22 +569,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3.11747863888741</v>
+        <v>3.307996869087219</v>
       </c>
       <c r="D5" t="n">
-        <v>-5.436717748641967</v>
+        <v>-5.476139068603516</v>
       </c>
       <c r="E5" t="n">
-        <v>-5.15502381324769</v>
+        <v>-0.757482767105103</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.9424123764038086</v>
+        <v>0.2102903574705124</v>
       </c>
       <c r="G5" t="n">
-        <v>-3.084411382675171</v>
+        <v>-1.237612962722778</v>
       </c>
       <c r="H5" t="n">
-        <v>0.4729624092578888</v>
+        <v>0.2101376503705978</v>
       </c>
     </row>
     <row r="6">
@@ -597,22 +597,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3.307996869087219</v>
+        <v>4.280841529369356</v>
       </c>
       <c r="D6" t="n">
-        <v>-5.476139068603516</v>
+        <v>-4.743481069803241</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.757482767105103</v>
+        <v>2.116865754127498</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2102903574705124</v>
+        <v>-0.4138612151145935</v>
       </c>
       <c r="G6" t="n">
-        <v>-1.237612962722778</v>
+        <v>-0.9240863919258118</v>
       </c>
       <c r="H6" t="n">
-        <v>0.2101376503705978</v>
+        <v>0.252134621143341</v>
       </c>
     </row>
     <row r="7">
@@ -625,22 +625,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4.280841529369356</v>
+        <v>1.148419260978671</v>
       </c>
       <c r="D7" t="n">
-        <v>-4.743481069803241</v>
+        <v>-4.571187555789954</v>
       </c>
       <c r="E7" t="n">
-        <v>2.116865754127498</v>
+        <v>3.019693136215206</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.4138612151145935</v>
+        <v>0.432645320892334</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.9240863919258118</v>
+        <v>1.750434398651123</v>
       </c>
       <c r="H7" t="n">
-        <v>0.252134621143341</v>
+        <v>-0.1994474977254867</v>
       </c>
     </row>
     <row r="8">
@@ -653,22 +653,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1.148419260978671</v>
+        <v>-5.23933637142183</v>
       </c>
       <c r="D8" t="n">
-        <v>-4.571187555789954</v>
+        <v>-7.058503150939933</v>
       </c>
       <c r="E8" t="n">
-        <v>3.019693136215206</v>
+        <v>-0.1314393877982891</v>
       </c>
       <c r="F8" t="n">
-        <v>0.432645320892334</v>
+        <v>1.822669148445129</v>
       </c>
       <c r="G8" t="n">
-        <v>1.750434398651123</v>
+        <v>5.886908531188965</v>
       </c>
       <c r="H8" t="n">
-        <v>-0.1994474977254867</v>
+        <v>-2.078774452209473</v>
       </c>
     </row>
     <row r="9">
@@ -681,22 +681,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>-5.23933637142183</v>
+        <v>5.029654502868652</v>
       </c>
       <c r="D9" t="n">
-        <v>-7.058503150939933</v>
+        <v>-12.30031204223633</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.1314393877982891</v>
+        <v>-12.83510589599609</v>
       </c>
       <c r="F9" t="n">
-        <v>1.822669148445129</v>
+        <v>0.7883216142654419</v>
       </c>
       <c r="G9" t="n">
-        <v>5.886908531188965</v>
+        <v>2.360841512680054</v>
       </c>
       <c r="H9" t="n">
-        <v>-2.078774452209473</v>
+        <v>1.160491228103638</v>
       </c>
     </row>
     <row r="10">
@@ -709,22 +709,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>5.029654502868652</v>
+        <v>-1.211387872695933</v>
       </c>
       <c r="D10" t="n">
-        <v>-12.30031204223633</v>
+        <v>-5.499476730823506</v>
       </c>
       <c r="E10" t="n">
-        <v>-12.83510589599609</v>
+        <v>-6.533813059329978</v>
       </c>
       <c r="F10" t="n">
-        <v>0.7883216142654419</v>
+        <v>0.5829181671142578</v>
       </c>
       <c r="G10" t="n">
-        <v>2.360841512680054</v>
+        <v>1.261283993721008</v>
       </c>
       <c r="H10" t="n">
-        <v>1.160491228103638</v>
+        <v>0.6953173875808716</v>
       </c>
     </row>
     <row r="11">
@@ -737,22 +737,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>-1.211387872695933</v>
+        <v>-3.101414084434511</v>
       </c>
       <c r="D11" t="n">
-        <v>-5.499476730823506</v>
+        <v>-3.493300497531889</v>
       </c>
       <c r="E11" t="n">
-        <v>-6.533813059329978</v>
+        <v>-7.406978726387027</v>
       </c>
       <c r="F11" t="n">
-        <v>0.5829181671142578</v>
+        <v>-0.3068070709705353</v>
       </c>
       <c r="G11" t="n">
-        <v>1.261283993721008</v>
+        <v>1.792431354522705</v>
       </c>
       <c r="H11" t="n">
-        <v>0.6953173875808716</v>
+        <v>-0.2423607856035232</v>
       </c>
     </row>
     <row r="12">
@@ -765,22 +765,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>-3.101414084434511</v>
+        <v>-3.497859179973603</v>
       </c>
       <c r="D12" t="n">
-        <v>-3.493300497531889</v>
+        <v>-3.212260961532593</v>
       </c>
       <c r="E12" t="n">
-        <v>-7.406978726387027</v>
+        <v>-10.54216539859774</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.3068070709705353</v>
+        <v>0.2667953968048095</v>
       </c>
       <c r="G12" t="n">
-        <v>1.792431354522705</v>
+        <v>-0.7637342810630798</v>
       </c>
       <c r="H12" t="n">
-        <v>-0.2423607856035232</v>
+        <v>0.0548251569271087</v>
       </c>
     </row>
     <row r="13">
@@ -793,22 +793,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>-3.497859179973603</v>
+        <v>-1.64927089214325</v>
       </c>
       <c r="D13" t="n">
-        <v>-3.212260961532593</v>
+        <v>-7.43125307559967</v>
       </c>
       <c r="E13" t="n">
-        <v>-10.54216539859774</v>
+        <v>-8.658325910568239</v>
       </c>
       <c r="F13" t="n">
-        <v>0.2667953968048095</v>
+        <v>-1.207069754600525</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.7637342810630798</v>
+        <v>-6.127589225769043</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0548251569271087</v>
+        <v>-1.29213273525238</v>
       </c>
     </row>
     <row r="14">
@@ -821,22 +821,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>-1.64927089214325</v>
+        <v>-1.025534451007847</v>
       </c>
       <c r="D14" t="n">
-        <v>-7.43125307559967</v>
+        <v>-11.15312564373016</v>
       </c>
       <c r="E14" t="n">
-        <v>-8.658325910568239</v>
+        <v>-2.677394092082968</v>
       </c>
       <c r="F14" t="n">
-        <v>-1.207069754600525</v>
+        <v>-1.138041973114014</v>
       </c>
       <c r="G14" t="n">
-        <v>-6.127589225769043</v>
+        <v>-3.366478443145752</v>
       </c>
       <c r="H14" t="n">
-        <v>-1.29213273525238</v>
+        <v>0.9393580555915833</v>
       </c>
     </row>
     <row r="15">
@@ -849,22 +849,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>-1.025534451007847</v>
+        <v>-1.654657959938065</v>
       </c>
       <c r="D15" t="n">
-        <v>-11.15312564373016</v>
+        <v>-9.341210365295419</v>
       </c>
       <c r="E15" t="n">
-        <v>-2.677394092082968</v>
+        <v>0.4500467777252322</v>
       </c>
       <c r="F15" t="n">
-        <v>-1.138041973114014</v>
+        <v>1.038929104804993</v>
       </c>
       <c r="G15" t="n">
-        <v>-3.366478443145752</v>
+        <v>-0.7336491346359253</v>
       </c>
       <c r="H15" t="n">
-        <v>0.9393580555915833</v>
+        <v>-1.004567861557007</v>
       </c>
     </row>
     <row r="16">
@@ -877,22 +877,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>-1.654657959938065</v>
+        <v>2.828480809926987</v>
       </c>
       <c r="D16" t="n">
-        <v>-9.341210365295419</v>
+        <v>-5.927687406539919</v>
       </c>
       <c r="E16" t="n">
-        <v>0.4500467777252322</v>
+        <v>-2.06907200813294</v>
       </c>
       <c r="F16" t="n">
-        <v>1.038929104804993</v>
+        <v>-0.5413793325424194</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.7336491346359253</v>
+        <v>-1.692554831504822</v>
       </c>
       <c r="H16" t="n">
-        <v>-1.004567861557007</v>
+        <v>-0.2292271852493286</v>
       </c>
     </row>
     <row r="17">
@@ -905,22 +905,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2.828480809926987</v>
+        <v>3.216025352478028</v>
       </c>
       <c r="D17" t="n">
-        <v>-5.927687406539919</v>
+        <v>-4.024631500244141</v>
       </c>
       <c r="E17" t="n">
-        <v>-2.06907200813294</v>
+        <v>4.593602180480957</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.5413793325424194</v>
+        <v>-0.3520110845565796</v>
       </c>
       <c r="G17" t="n">
-        <v>-1.692554831504822</v>
+        <v>0.6711881756782532</v>
       </c>
       <c r="H17" t="n">
-        <v>-0.2292271852493286</v>
+        <v>-0.102472648024559</v>
       </c>
     </row>
     <row r="18">
@@ -933,22 +933,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>3.216025352478028</v>
+        <v>-1.550865292549141</v>
       </c>
       <c r="D18" t="n">
-        <v>-4.024631500244141</v>
+        <v>-5.700099587440493</v>
       </c>
       <c r="E18" t="n">
-        <v>4.593602180480957</v>
+        <v>3.356234908103941</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.3520110845565796</v>
+        <v>2.986520290374756</v>
       </c>
       <c r="G18" t="n">
-        <v>0.6711881756782532</v>
+        <v>4.694652080535889</v>
       </c>
       <c r="H18" t="n">
-        <v>-0.102472648024559</v>
+        <v>0.0166460778564214</v>
       </c>
     </row>
     <row r="19">
@@ -961,22 +961,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>-1.550865292549141</v>
+        <v>-2.655673027038576</v>
       </c>
       <c r="D19" t="n">
-        <v>-5.700099587440493</v>
+        <v>-3.905611395835868</v>
       </c>
       <c r="E19" t="n">
-        <v>3.356234908103941</v>
+        <v>-3.318085908889795</v>
       </c>
       <c r="F19" t="n">
-        <v>2.986520290374756</v>
+        <v>1.599092483520508</v>
       </c>
       <c r="G19" t="n">
-        <v>4.694652080535889</v>
+        <v>4.835456371307373</v>
       </c>
       <c r="H19" t="n">
-        <v>0.0166460778564214</v>
+        <v>1.327257513999939</v>
       </c>
     </row>
     <row r="20">
@@ -989,22 +989,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>-2.655673027038576</v>
+        <v>-1.430848956108096</v>
       </c>
       <c r="D20" t="n">
-        <v>-3.905611395835868</v>
+        <v>-1.578429281711582</v>
       </c>
       <c r="E20" t="n">
-        <v>-3.318085908889795</v>
+        <v>-8.265119194984431</v>
       </c>
       <c r="F20" t="n">
-        <v>1.599092483520508</v>
+        <v>-0.3246748745441437</v>
       </c>
       <c r="G20" t="n">
-        <v>4.835456371307373</v>
+        <v>0.3605632185935974</v>
       </c>
       <c r="H20" t="n">
-        <v>1.327257513999939</v>
+        <v>0.3962988257408142</v>
       </c>
     </row>
     <row r="21">
@@ -1017,22 +1017,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>-1.430848956108096</v>
+        <v>-2.407764434814463</v>
       </c>
       <c r="D21" t="n">
-        <v>-1.578429281711582</v>
+        <v>-1.766093373298651</v>
       </c>
       <c r="E21" t="n">
-        <v>-8.265119194984431</v>
+        <v>-8.389460563659659</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.3246748745441437</v>
+        <v>0.05283984541893</v>
       </c>
       <c r="G21" t="n">
-        <v>0.3605632185935974</v>
+        <v>0.2293798923492431</v>
       </c>
       <c r="H21" t="n">
-        <v>0.3962988257408142</v>
+        <v>-0.2738203406333923</v>
       </c>
     </row>
   </sheetData>

--- a/spliced/struggle/2023-04-06_17-42-32/data_selected.xlsx
+++ b/spliced/struggle/2023-04-06_17-42-32/data_selected.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,22 +485,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2.451793313026428</v>
+        <v>2.563363254070282</v>
       </c>
       <c r="D2" t="n">
-        <v>-5.718138635158539</v>
+        <v>-5.564052700996399</v>
       </c>
       <c r="E2" t="n">
-        <v>-4.555151760578156</v>
+        <v>-4.925167679786682</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0036651915870606</v>
+        <v>-0.0056505035609006</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.0503963828086853</v>
+        <v>-0.007177666760981</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0389426611363887</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -513,22 +513,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4.312116026878357</v>
+        <v>2.571200489997864</v>
       </c>
       <c r="D3" t="n">
-        <v>-5.115874052047729</v>
+        <v>-5.45090651512146</v>
       </c>
       <c r="E3" t="n">
-        <v>-7.913362622261047</v>
+        <v>-4.94497549533844</v>
       </c>
       <c r="F3" t="n">
-        <v>-1.588860511779785</v>
+        <v>-0.0161879286170005</v>
       </c>
       <c r="G3" t="n">
-        <v>-2.905885934829712</v>
+        <v>0.0122173046693205</v>
       </c>
       <c r="H3" t="n">
-        <v>0.6783658266067505</v>
+        <v>-0.0047342055477201</v>
       </c>
     </row>
     <row r="4">
@@ -541,22 +541,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3.11747863888741</v>
+        <v>2.582025349140167</v>
       </c>
       <c r="D4" t="n">
-        <v>-5.436717748641967</v>
+        <v>-5.429405391216278</v>
       </c>
       <c r="E4" t="n">
-        <v>-5.15502381324769</v>
+        <v>-4.891633093357086</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.9424123764038086</v>
+        <v>0.0029016099870204</v>
       </c>
       <c r="G4" t="n">
-        <v>-3.084411382675171</v>
+        <v>-0.0010690141934901</v>
       </c>
       <c r="H4" t="n">
-        <v>0.4729624092578888</v>
+        <v>-0.009468411095440299</v>
       </c>
     </row>
     <row r="5">
@@ -569,22 +569,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3.307996869087219</v>
+        <v>2.521161556243896</v>
       </c>
       <c r="D5" t="n">
-        <v>-5.476139068603516</v>
+        <v>-5.436496257781982</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.757482767105103</v>
+        <v>-4.74793529510498</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2102903574705124</v>
+        <v>0.00534507073462</v>
       </c>
       <c r="G5" t="n">
-        <v>-1.237612962722778</v>
+        <v>0.0088575463742017</v>
       </c>
       <c r="H5" t="n">
-        <v>0.2101376503705978</v>
+        <v>0.0045814891345798</v>
       </c>
     </row>
     <row r="6">
@@ -597,22 +597,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4.280841529369356</v>
+        <v>2.451793313026428</v>
       </c>
       <c r="D6" t="n">
-        <v>-4.743481069803241</v>
+        <v>-5.718138635158539</v>
       </c>
       <c r="E6" t="n">
-        <v>2.116865754127498</v>
+        <v>-4.555151760578156</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.4138612151145935</v>
+        <v>0.0036651915870606</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.9240863919258118</v>
+        <v>-0.0503963828086853</v>
       </c>
       <c r="H6" t="n">
-        <v>0.252134621143341</v>
+        <v>0.0389426611363887</v>
       </c>
     </row>
     <row r="7">
@@ -625,22 +625,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1.148419260978671</v>
+        <v>4.312116026878357</v>
       </c>
       <c r="D7" t="n">
-        <v>-4.571187555789954</v>
+        <v>-5.115874052047729</v>
       </c>
       <c r="E7" t="n">
-        <v>3.019693136215206</v>
+        <v>-7.913362622261047</v>
       </c>
       <c r="F7" t="n">
-        <v>0.432645320892334</v>
+        <v>-1.588860511779785</v>
       </c>
       <c r="G7" t="n">
-        <v>1.750434398651123</v>
+        <v>-2.905885934829712</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.1994474977254867</v>
+        <v>0.6783658266067505</v>
       </c>
     </row>
     <row r="8">
@@ -653,22 +653,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-5.23933637142183</v>
+        <v>3.11747863888741</v>
       </c>
       <c r="D8" t="n">
-        <v>-7.058503150939933</v>
+        <v>-5.436717748641967</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.1314393877982891</v>
+        <v>-5.15502381324769</v>
       </c>
       <c r="F8" t="n">
-        <v>1.822669148445129</v>
+        <v>-0.9424123764038086</v>
       </c>
       <c r="G8" t="n">
-        <v>5.886908531188965</v>
+        <v>-3.084411382675171</v>
       </c>
       <c r="H8" t="n">
-        <v>-2.078774452209473</v>
+        <v>0.4729624092578888</v>
       </c>
     </row>
     <row r="9">
@@ -681,22 +681,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5.029654502868652</v>
+        <v>3.307996869087219</v>
       </c>
       <c r="D9" t="n">
-        <v>-12.30031204223633</v>
+        <v>-5.476139068603516</v>
       </c>
       <c r="E9" t="n">
-        <v>-12.83510589599609</v>
+        <v>-0.757482767105103</v>
       </c>
       <c r="F9" t="n">
-        <v>0.7883216142654419</v>
+        <v>0.2102903574705124</v>
       </c>
       <c r="G9" t="n">
-        <v>2.360841512680054</v>
+        <v>-1.237612962722778</v>
       </c>
       <c r="H9" t="n">
-        <v>1.160491228103638</v>
+        <v>0.2101376503705978</v>
       </c>
     </row>
     <row r="10">
@@ -709,22 +709,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>-1.211387872695933</v>
+        <v>4.280841529369356</v>
       </c>
       <c r="D10" t="n">
-        <v>-5.499476730823506</v>
+        <v>-4.743481069803241</v>
       </c>
       <c r="E10" t="n">
-        <v>-6.533813059329978</v>
+        <v>2.116865754127498</v>
       </c>
       <c r="F10" t="n">
-        <v>0.5829181671142578</v>
+        <v>-0.4138612151145935</v>
       </c>
       <c r="G10" t="n">
-        <v>1.261283993721008</v>
+        <v>-0.9240863919258118</v>
       </c>
       <c r="H10" t="n">
-        <v>0.6953173875808716</v>
+        <v>0.252134621143341</v>
       </c>
     </row>
     <row r="11">
@@ -737,22 +737,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>-3.101414084434511</v>
+        <v>1.148419260978671</v>
       </c>
       <c r="D11" t="n">
-        <v>-3.493300497531889</v>
+        <v>-4.571187555789954</v>
       </c>
       <c r="E11" t="n">
-        <v>-7.406978726387027</v>
+        <v>3.019693136215206</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.3068070709705353</v>
+        <v>0.432645320892334</v>
       </c>
       <c r="G11" t="n">
-        <v>1.792431354522705</v>
+        <v>1.750434398651123</v>
       </c>
       <c r="H11" t="n">
-        <v>-0.2423607856035232</v>
+        <v>-0.1994474977254867</v>
       </c>
     </row>
     <row r="12">
@@ -765,22 +765,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>-3.497859179973603</v>
+        <v>-5.23933637142183</v>
       </c>
       <c r="D12" t="n">
-        <v>-3.212260961532593</v>
+        <v>-7.058503150939933</v>
       </c>
       <c r="E12" t="n">
-        <v>-10.54216539859774</v>
+        <v>-0.1314393877982891</v>
       </c>
       <c r="F12" t="n">
-        <v>0.2667953968048095</v>
+        <v>1.822669148445129</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.7637342810630798</v>
+        <v>5.886908531188965</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0548251569271087</v>
+        <v>-2.078774452209473</v>
       </c>
     </row>
     <row r="13">
@@ -793,22 +793,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>-1.64927089214325</v>
+        <v>5.029654502868652</v>
       </c>
       <c r="D13" t="n">
-        <v>-7.43125307559967</v>
+        <v>-12.30031204223633</v>
       </c>
       <c r="E13" t="n">
-        <v>-8.658325910568239</v>
+        <v>-12.83510589599609</v>
       </c>
       <c r="F13" t="n">
-        <v>-1.207069754600525</v>
+        <v>0.7883216142654419</v>
       </c>
       <c r="G13" t="n">
-        <v>-6.127589225769043</v>
+        <v>2.360841512680054</v>
       </c>
       <c r="H13" t="n">
-        <v>-1.29213273525238</v>
+        <v>1.160491228103638</v>
       </c>
     </row>
     <row r="14">
@@ -821,22 +821,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>-1.025534451007847</v>
+        <v>-1.211387872695933</v>
       </c>
       <c r="D14" t="n">
-        <v>-11.15312564373016</v>
+        <v>-5.499476730823506</v>
       </c>
       <c r="E14" t="n">
-        <v>-2.677394092082968</v>
+        <v>-6.533813059329978</v>
       </c>
       <c r="F14" t="n">
-        <v>-1.138041973114014</v>
+        <v>0.5829181671142578</v>
       </c>
       <c r="G14" t="n">
-        <v>-3.366478443145752</v>
+        <v>1.261283993721008</v>
       </c>
       <c r="H14" t="n">
-        <v>0.9393580555915833</v>
+        <v>0.6953173875808716</v>
       </c>
     </row>
     <row r="15">
@@ -849,22 +849,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>-1.654657959938065</v>
+        <v>-3.101414084434511</v>
       </c>
       <c r="D15" t="n">
-        <v>-9.341210365295419</v>
+        <v>-3.493300497531889</v>
       </c>
       <c r="E15" t="n">
-        <v>0.4500467777252322</v>
+        <v>-7.406978726387027</v>
       </c>
       <c r="F15" t="n">
-        <v>1.038929104804993</v>
+        <v>-0.3068070709705353</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.7336491346359253</v>
+        <v>1.792431354522705</v>
       </c>
       <c r="H15" t="n">
-        <v>-1.004567861557007</v>
+        <v>-0.2423607856035232</v>
       </c>
     </row>
     <row r="16">
@@ -877,22 +877,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2.828480809926987</v>
+        <v>-3.497859179973603</v>
       </c>
       <c r="D16" t="n">
-        <v>-5.927687406539919</v>
+        <v>-3.212260961532593</v>
       </c>
       <c r="E16" t="n">
-        <v>-2.06907200813294</v>
+        <v>-10.54216539859774</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.5413793325424194</v>
+        <v>0.2667953968048095</v>
       </c>
       <c r="G16" t="n">
-        <v>-1.692554831504822</v>
+        <v>-0.7637342810630798</v>
       </c>
       <c r="H16" t="n">
-        <v>-0.2292271852493286</v>
+        <v>0.0548251569271087</v>
       </c>
     </row>
     <row r="17">
@@ -905,22 +905,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3.216025352478028</v>
+        <v>-1.64927089214325</v>
       </c>
       <c r="D17" t="n">
-        <v>-4.024631500244141</v>
+        <v>-7.43125307559967</v>
       </c>
       <c r="E17" t="n">
-        <v>4.593602180480957</v>
+        <v>-8.658325910568239</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.3520110845565796</v>
+        <v>-1.207069754600525</v>
       </c>
       <c r="G17" t="n">
-        <v>0.6711881756782532</v>
+        <v>-6.127589225769043</v>
       </c>
       <c r="H17" t="n">
-        <v>-0.102472648024559</v>
+        <v>-1.29213273525238</v>
       </c>
     </row>
     <row r="18">
@@ -933,22 +933,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>-1.550865292549141</v>
+        <v>-1.025534451007847</v>
       </c>
       <c r="D18" t="n">
-        <v>-5.700099587440493</v>
+        <v>-11.15312564373016</v>
       </c>
       <c r="E18" t="n">
-        <v>3.356234908103941</v>
+        <v>-2.677394092082968</v>
       </c>
       <c r="F18" t="n">
-        <v>2.986520290374756</v>
+        <v>-1.138041973114014</v>
       </c>
       <c r="G18" t="n">
-        <v>4.694652080535889</v>
+        <v>-3.366478443145752</v>
       </c>
       <c r="H18" t="n">
-        <v>0.0166460778564214</v>
+        <v>0.9393580555915833</v>
       </c>
     </row>
     <row r="19">
@@ -961,22 +961,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>-2.655673027038576</v>
+        <v>-1.654657959938065</v>
       </c>
       <c r="D19" t="n">
-        <v>-3.905611395835868</v>
+        <v>-9.341210365295419</v>
       </c>
       <c r="E19" t="n">
-        <v>-3.318085908889795</v>
+        <v>0.4500467777252322</v>
       </c>
       <c r="F19" t="n">
-        <v>1.599092483520508</v>
+        <v>1.038929104804993</v>
       </c>
       <c r="G19" t="n">
-        <v>4.835456371307373</v>
+        <v>-0.7336491346359253</v>
       </c>
       <c r="H19" t="n">
-        <v>1.327257513999939</v>
+        <v>-1.004567861557007</v>
       </c>
     </row>
     <row r="20">
@@ -989,22 +989,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>-1.430848956108096</v>
+        <v>2.828480809926987</v>
       </c>
       <c r="D20" t="n">
-        <v>-1.578429281711582</v>
+        <v>-5.927687406539919</v>
       </c>
       <c r="E20" t="n">
-        <v>-8.265119194984431</v>
+        <v>-2.06907200813294</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.3246748745441437</v>
+        <v>-0.5413793325424194</v>
       </c>
       <c r="G20" t="n">
-        <v>0.3605632185935974</v>
+        <v>-1.692554831504822</v>
       </c>
       <c r="H20" t="n">
-        <v>0.3962988257408142</v>
+        <v>-0.2292271852493286</v>
       </c>
     </row>
     <row r="21">
@@ -1017,22 +1017,302 @@
         </is>
       </c>
       <c r="C21" t="n">
+        <v>3.216025352478028</v>
+      </c>
+      <c r="D21" t="n">
+        <v>-4.024631500244141</v>
+      </c>
+      <c r="E21" t="n">
+        <v>4.593602180480957</v>
+      </c>
+      <c r="F21" t="n">
+        <v>-0.3520110845565796</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.6711881756782532</v>
+      </c>
+      <c r="H21" t="n">
+        <v>-0.102472648024559</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>2000</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>struggle</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>-1.550865292549141</v>
+      </c>
+      <c r="D22" t="n">
+        <v>-5.700099587440493</v>
+      </c>
+      <c r="E22" t="n">
+        <v>3.356234908103941</v>
+      </c>
+      <c r="F22" t="n">
+        <v>2.986520290374756</v>
+      </c>
+      <c r="G22" t="n">
+        <v>4.694652080535889</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.0166460778564214</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>2100</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>struggle</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>-2.655673027038576</v>
+      </c>
+      <c r="D23" t="n">
+        <v>-3.905611395835868</v>
+      </c>
+      <c r="E23" t="n">
+        <v>-3.318085908889795</v>
+      </c>
+      <c r="F23" t="n">
+        <v>1.599092483520508</v>
+      </c>
+      <c r="G23" t="n">
+        <v>4.835456371307373</v>
+      </c>
+      <c r="H23" t="n">
+        <v>1.327257513999939</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>2200</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>struggle</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>-1.430848956108096</v>
+      </c>
+      <c r="D24" t="n">
+        <v>-1.578429281711582</v>
+      </c>
+      <c r="E24" t="n">
+        <v>-8.265119194984431</v>
+      </c>
+      <c r="F24" t="n">
+        <v>-0.3246748745441437</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.3605632185935974</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.3962988257408142</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>2300</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>struggle</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
         <v>-2.407764434814463</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D25" t="n">
         <v>-1.766093373298651</v>
       </c>
-      <c r="E21" t="n">
+      <c r="E25" t="n">
         <v>-8.389460563659659</v>
       </c>
-      <c r="F21" t="n">
+      <c r="F25" t="n">
         <v>0.05283984541893</v>
       </c>
-      <c r="G21" t="n">
+      <c r="G25" t="n">
         <v>0.2293798923492431</v>
       </c>
-      <c r="H21" t="n">
+      <c r="H25" t="n">
         <v>-0.2738203406333923</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>2400</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>struggle</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>-2.611050009727472</v>
+      </c>
+      <c r="D26" t="n">
+        <v>-2.573673054575919</v>
+      </c>
+      <c r="E26" t="n">
+        <v>-8.294337868690496</v>
+      </c>
+      <c r="F26" t="n">
+        <v>-0.6475171446800232</v>
+      </c>
+      <c r="G26" t="n">
+        <v>-0.2813034355640411</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.0232128798961639</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>2500</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>struggle</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>0.61596310138703</v>
+      </c>
+      <c r="D27" t="n">
+        <v>-2.870795279741297</v>
+      </c>
+      <c r="E27" t="n">
+        <v>-8.901223957538587</v>
+      </c>
+      <c r="F27" t="n">
+        <v>-0.1372919678688049</v>
+      </c>
+      <c r="G27" t="n">
+        <v>-2.705674886703491</v>
+      </c>
+      <c r="H27" t="n">
+        <v>-0.5198463201522827</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>2600</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>struggle</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>2.079445004463198</v>
+      </c>
+      <c r="D28" t="n">
+        <v>-5.368536770343783</v>
+      </c>
+      <c r="E28" t="n">
+        <v>-3.524431616067886</v>
+      </c>
+      <c r="F28" t="n">
+        <v>-0.6478226184844971</v>
+      </c>
+      <c r="G28" t="n">
+        <v>-0.2128865420818328</v>
+      </c>
+      <c r="H28" t="n">
+        <v>-0.0656680166721344</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>2700</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>struggle</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>0.3216586112976074</v>
+      </c>
+      <c r="D29" t="n">
+        <v>-3.676267147064209</v>
+      </c>
+      <c r="E29" t="n">
+        <v>-3.865855693817138</v>
+      </c>
+      <c r="F29" t="n">
+        <v>-0.1000291854143142</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.1372919678688049</v>
+      </c>
+      <c r="H29" t="n">
+        <v>-0.1838704347610473</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>2800</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>struggle</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>1.706132471561434</v>
+      </c>
+      <c r="D30" t="n">
+        <v>-4.47040206193924</v>
+      </c>
+      <c r="E30" t="n">
+        <v>-5.197765350341799</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.2654209434986114</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.0520762614905834</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.0438295826315879</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>2900</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>struggle</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>1.816254138946533</v>
+      </c>
+      <c r="D31" t="n">
+        <v>-3.920204520225524</v>
+      </c>
+      <c r="E31" t="n">
+        <v>-5.85852086544037</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.0809396430850029</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.3397938013076782</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.0826195254921913</v>
       </c>
     </row>
   </sheetData>
